--- a/biology/Botanique/Jardins_de_Coursiana/Jardins_de_Coursiana.xlsx
+++ b/biology/Botanique/Jardins_de_Coursiana/Jardins_de_Coursiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Jardins de Coursiana sont composés d'un jardin botanique et d'un arboretum sur une superficie de 6 ha. C'est une propriété privée, située à La Romieu, France.
@@ -512,7 +524,9 @@
           <t>Localisation, accessibilité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> Les Jardins de Coursiana  - 32480 La Romieu, département du Gers, Occitanie, sont situés en Gascogne, sur l'un des chemins menant à Saint-Jacques-de-Compostelle.
 L'établissement est ouvert tous les jours pendant les mois chauds de l'année, de la mi-avril jusqu'à la fin d'octobre, moyennant un droit d'entrée.
@@ -544,14 +558,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin et l'arboretum sont créés en 1974 par le botaniste français Gilbert Cours-Darne qui, en 1995, a reçu le prix Olivier de Serres (la plus haute distinction de l'Académie d'agriculture)[1].
-La propriété appartient à  Véronique  et  Arnaud Delannoy  depuis 1992[1].
-L'arboretum reçoit le prix national « Édouard d'Avdew » en 1997 par l'association des parcs botaniques de France[2].
-En 2000, sa collection de  Tilia  (tilleuls) avec 60 taxons dont 30 espèces est répertoriée comme collection nationale par le Conservatoire des collections végétales spécialisées (CCVS)[1].
-En 2005, l'ensemble des jardins et de l'arboretum est labellisé « Jardin remarquable » par le ministère de la culture et de la communication[1].
-Les jardins de Coursiana sont classés « parc d’intérêt botanique « (agréé par l’APBF) en 2009[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin et l'arboretum sont créés en 1974 par le botaniste français Gilbert Cours-Darne qui, en 1995, a reçu le prix Olivier de Serres (la plus haute distinction de l'Académie d'agriculture).
+La propriété appartient à  Véronique  et  Arnaud Delannoy  depuis 1992.
+L'arboretum reçoit le prix national « Édouard d'Avdew » en 1997 par l'association des parcs botaniques de France.
+En 2000, sa collection de  Tilia  (tilleuls) avec 60 taxons dont 30 espèces est répertoriée comme collection nationale par le Conservatoire des collections végétales spécialisées (CCVS).
+En 2005, l'ensemble des jardins et de l'arboretum est labellisé « Jardin remarquable » par le ministère de la culture et de la communication.
+Les jardins de Coursiana sont classés « parc d’intérêt botanique « (agréé par l’APBF) en 2009.
 </t>
         </is>
       </c>
@@ -580,14 +596,16 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jardin botanique abrite :
 un jardin de plantes aromatiques et médicinales, commencé en 2001.
 un jardin anglais,
 un verger,
-l'arboretum présente quelque 700 espèces d'arbres et d'arbustes, dont un  Quercus robur  de 200 ans,  Aesculus californica , Alnus cremastogyne ,  Davidia involucrata ,  Firmiana simplex ,  Parrotia persica ,  Sassafras officinalis , Tilia americana nova, Tilia chenmoui, Tilia henryana[3]...
-Dans ces jardins, 80 % des végétaux sont étiquetés, un travail rare[2].
+l'arboretum présente quelque 700 espèces d'arbres et d'arbustes, dont un  Quercus robur  de 200 ans,  Aesculus californica , Alnus cremastogyne ,  Davidia involucrata ,  Firmiana simplex ,  Parrotia persica ,  Sassafras officinalis , Tilia americana nova, Tilia chenmoui, Tilia henryana...
+Dans ces jardins, 80 % des végétaux sont étiquetés, un travail rare.
 </t>
         </is>
       </c>
